--- a/Meeting_Reports/2019-12-15 TODO.xlsx
+++ b/Meeting_Reports/2019-12-15 TODO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gin\Git\open_programming_school\Meeting_Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E373D1-1123-4E46-B003-7ED2A38F40C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD2BFCA-2296-4EE6-82FC-3FCC6C8CF359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{45383D3B-9512-4B15-A157-BD2265E5EE4A}"/>
   </bookViews>
@@ -1336,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8154235A-B496-444D-8FA3-6232AEB94FAD}">
   <dimension ref="B2:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
